--- a/test/data_validation_test.xlsx
+++ b/test/data_validation_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107DC0D-1FD9-4D15-8DF9-70CEBD24AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3FC28-FD87-4B0E-8AE3-11C5B709392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
-  <si>
-    <t>Source ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Allowed Categories</t>
   </si>
@@ -94,85 +91,10 @@
     <t>Expense Name</t>
   </si>
   <si>
-    <t>Expense ID</t>
-  </si>
-  <si>
     <t>sam</t>
   </si>
   <si>
     <t>qq</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>E003</t>
-  </si>
-  <si>
-    <t>E004</t>
-  </si>
-  <si>
-    <t>E005</t>
-  </si>
-  <si>
-    <t>E006</t>
-  </si>
-  <si>
-    <t>E007</t>
-  </si>
-  <si>
-    <t>E008</t>
-  </si>
-  <si>
-    <t>E009</t>
-  </si>
-  <si>
-    <t>E010</t>
-  </si>
-  <si>
-    <t>E011</t>
-  </si>
-  <si>
-    <t>E012</t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t>E015</t>
-  </si>
-  <si>
-    <t>FS001</t>
-  </si>
-  <si>
-    <t>FS002</t>
-  </si>
-  <si>
-    <t>FS003</t>
-  </si>
-  <si>
-    <t>FS004</t>
-  </si>
-  <si>
-    <t>FS005</t>
-  </si>
-  <si>
-    <t>FS006</t>
-  </si>
-  <si>
-    <t>FS007</t>
-  </si>
-  <si>
-    <t>FS009</t>
-  </si>
-  <si>
-    <t>FS010</t>
   </si>
 </sst>
 </file>
@@ -545,26 +467,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -575,259 +497,223 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45838</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C3" s="4">
+        <v>45689</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45900</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-12000</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45717</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45930</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
         <v>45658</v>
       </c>
-      <c r="E2" s="4">
-        <v>45838</v>
-      </c>
-      <c r="F2" s="5">
-        <v>15000</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45748</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45961</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>45809</v>
+      </c>
+      <c r="D7" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E7" s="5">
+        <v>18000</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D8" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
-        <v>45689</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45900</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-12000</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45717</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45930</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8000</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C9" s="4">
+        <v>45778</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45991</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45839</v>
+      </c>
+      <c r="D10" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
         <v>45658</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D11" s="4">
         <v>46022</v>
       </c>
-      <c r="F5" s="5">
-        <v>20000</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45748</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45961</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E11" s="5">
         <v>10000</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4">
-        <v>45809</v>
-      </c>
-      <c r="E7" s="4">
-        <v>46022</v>
-      </c>
-      <c r="F7" s="5">
-        <v>18000</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.8">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45658</v>
-      </c>
-      <c r="E8" s="4">
-        <v>46022</v>
-      </c>
-      <c r="F8" s="5">
-        <v>25000</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45778</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45991</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.8">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45839</v>
-      </c>
-      <c r="E10" s="4">
-        <v>46022</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="43.2">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45658</v>
-      </c>
-      <c r="E11" s="4">
-        <v>46022</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -837,30 +723,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB045595-88CF-4B1B-827F-6138CF5A9DC8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:6" ht="43.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
@@ -868,303 +754,255 @@
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
         <v>5000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4">
         <v>45703</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
         <v>8000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="4">
         <v>45708</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>3000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="4">
         <v>45726</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
         <v>12000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>45762</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
         <v>15000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="4">
         <v>45797</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
         <v>4000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E7" s="4">
         <v>45818</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5">
         <v>8000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E8" s="4">
         <v>45853</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
         <v>10000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="E9" s="4">
         <v>45858</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
         <v>6000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
         <v>45879</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
         <v>15000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E11" s="4">
         <v>45915</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8">
+    <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
         <v>12000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="E12" s="4">
         <v>45950</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
         <v>5000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E13" s="4">
         <v>45971</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
         <v>10000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E14" s="4">
         <v>46006</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
         <v>46011</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
         <v>15000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="E16" s="4">
         <v>46016</v>
       </c>
     </row>

--- a/test/data_validation_test.xlsx
+++ b/test/data_validation_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3FC28-FD87-4B0E-8AE3-11C5B709392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7C68A4-E404-8D4F-916F-E5A733960799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Allowed Categories</t>
   </si>
@@ -95,13 +95,16 @@
   </si>
   <si>
     <t>qq</t>
+  </si>
+  <si>
+    <t>15/20/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,15 +476,15 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -501,7 +504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -519,7 +522,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -537,7 +540,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -555,7 +558,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -571,7 +574,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="28.8">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -605,7 +608,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -623,7 +626,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -641,7 +644,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -657,7 +660,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -683,7 +686,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -691,7 +694,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -699,7 +702,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -707,7 +710,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -726,19 +729,19 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="6"/>
+    <col min="2" max="3" width="8.83203125" style="6"/>
     <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -758,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -775,7 +778,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -792,7 +795,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -809,7 +812,7 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -824,7 +827,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -841,7 +844,7 @@
         <v>45797</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -858,7 +861,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -869,11 +872,11 @@
       <c r="D8" s="5">
         <v>8000</v>
       </c>
-      <c r="E8" s="4">
-        <v>45853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8">
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -887,7 +890,7 @@
         <v>45858</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -904,7 +907,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -921,7 +924,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -938,7 +941,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -955,7 +958,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -972,7 +975,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8">
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -989,7 +992,7 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
